--- a/data/trans_camb/P20_4_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P20_4_R-Estudios-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,7</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,96</t>
+          <t>-7,73</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-2,33</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-26,09; 11,61</t>
+          <t>-29,87; 32,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,09; 16,83</t>
+          <t>-26,84; 13,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,29; 9,87</t>
+          <t>-22,5; 14,91</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-12,95%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,88%</t>
+          <t>-11,76%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,14%</t>
+          <t>-4,12%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-43,31; 26,71</t>
+          <t>-49,81; 88,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,02; 65,12</t>
+          <t>-36,03; 24,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-27,63; 26,76</t>
+          <t>-34,93; 30,87</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,27</t>
+          <t>-3,67</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>-2,18</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 10,23</t>
+          <t>-13,53; 11,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,78; 17,49</t>
+          <t>-12,48; 7,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 11,83</t>
+          <t>-10,28; 6,67</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>-0,91%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>30,11%</t>
+          <t>-5,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,88%</t>
+          <t>-3,29%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,09; 34,38</t>
+          <t>-19,11; 20,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,36; 67,02</t>
+          <t>-17,5; 12,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 40,09</t>
+          <t>-14,71; 10,97</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>11,25</t>
+          <t>-12,26</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,62</t>
+          <t>-9,88</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,42</t>
+          <t>-10,96</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,67; 20,96</t>
+          <t>-25,15; 1,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 17,68</t>
+          <t>-21,07; -0,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,29; 16,54</t>
+          <t>-19,04; -2,71</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>33,94%</t>
+          <t>-18,57%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>34,08%</t>
+          <t>-13,57%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>34,16%</t>
+          <t>-15,71%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,97; 73,42</t>
+          <t>-35,46; 2,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,53; 73,85</t>
+          <t>-26,91; 0,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,93; 60,96</t>
+          <t>-25,96; -4,14</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,5</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,08</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 10,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,34; 14,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,48; 10,58</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>28,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>18,24%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -913,25 +913,129 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 31,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,34; 51,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,68; 34,04</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-4,42</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-6,79</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-5,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-13,84; 5,38</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-13,43; -0,12</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-11,8; 0,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-7,07%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-9,75%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-8,59%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-20,85; 9,15</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-18,72; -0,31</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-17,25; 0,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P20_4_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P20_4_R-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>4,04</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-7,73</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-2,33</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>6.532238207710184</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-8.958803012338535</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-1.722492329605929</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-29,87; 32,84</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-26,84; 13,12</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-22,5; 14,91</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-23.88317336789888</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-27.98456262854143</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-21.11672128484783</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>8,73%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-11,76%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-4,12%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>35.65135417439397</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>10.86257423181984</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>16.00516749562705</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-49,81; 88,75</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-36,03; 24,03</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-34,93; 30,87</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.1412660803250541</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.134007960962307</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.03014811297129789</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,58</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-3,67</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-2,18</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.3934971476875812</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.373196561685306</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.3113350582862591</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-13,53; 11,56</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-12,48; 7,78</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-10,28; 6,67</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.9907675129698434</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.1832484987353746</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.335747841670372</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,91%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-5,41%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-3,29%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.5964607203152394</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-5.411719791474578</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-2.51108985845514</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-19,11; 20,97</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-17,5; 12,54</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-14,71; 10,97</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-11.90967696092078</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-16.14446361664224</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-10.44576545327357</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-12,26</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-9,88</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-10,96</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>12.81648350552578</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5.44176138900503</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>5.737013676533246</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-25,15; 1,59</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-21,07; -0,04</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-19,04; -2,71</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.009277594367682726</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.07927018405660845</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.0378528487306171</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-18,57%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-13,57%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-15,71%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.1689579034477523</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.2191295732507673</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1467251168725118</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-35,46; 2,24</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-26,91; 0,16</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-25,96; -4,14</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.2246355802820459</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.0897240240351798</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.09100438354771773</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +775,221 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-12.7835603061614</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-9.663656008704413</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-11.23774125136047</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-26.62482921773234</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-20.56934816140046</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-20.37275052800715</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>0.8008171604504862</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.4415784384672308</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>-2.626611048965926</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.1936680452121285</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.1327310692118404</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.161010694674853</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-4,42</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-6,79</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-5,7</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.38021343017813</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.2638627243774376</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.2791495853956344</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-13,84; 5,38</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-13,43; -0,12</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-11,8; 0,14</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.01328258664145267</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.00639170739237837</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>-0.04091695789759574</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-7,07%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-9,75%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-8,59%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-3.762585131097762</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-7.647353454876049</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-5.856693993550155</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-20,85; 9,15</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-18,72; -0,31</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-17,25; 0,22</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-12.69561181968326</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-14.44744925688493</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-11.23046782609235</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>6.294443418370921</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>-0.03646045701636788</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1068631698578696</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.06022960137221495</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.1092969419281898</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.08810974138515508</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.1902722305791882</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.1980918388619524</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.1640230340844434</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.1062570180255874</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>-0.0009891618408945173</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.001833547773517622</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
